--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -4624,15 +4624,15 @@
     <t>WSS</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -4642,13 +4642,13 @@
     <t>F</t>
   </si>
   <si>
+    <t>50%</t>
+  </si>
+  <si>
     <t>30%</t>
   </si>
   <si>
     <t>40%</t>
-  </si>
-  <si>
-    <t>50%</t>
   </si>
   <si>
     <t>20%</t>
@@ -5063,10 +5063,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C3" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D3" t="s">
         <v>1548</v>
@@ -5077,10 +5077,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C4" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D4" t="s">
         <v>1548</v>
@@ -5091,10 +5091,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D5" t="s">
         <v>1548</v>
@@ -5105,10 +5105,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C6" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D6" t="s">
         <v>1548</v>
@@ -5119,10 +5119,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C7" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D7" t="s">
         <v>1548</v>
@@ -5133,10 +5133,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C8" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D8" t="s">
         <v>1548</v>
@@ -5147,10 +5147,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="C9" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D9" t="s">
         <v>1548</v>
@@ -5161,10 +5161,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C10" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D10" t="s">
         <v>1548</v>
@@ -5175,10 +5175,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C11" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D11" t="s">
         <v>1548</v>
@@ -5189,10 +5189,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C12" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D12" t="s">
         <v>1548</v>
@@ -5203,10 +5203,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C13" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D13" t="s">
         <v>1548</v>
@@ -5231,10 +5231,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C15" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D15" t="s">
         <v>1548</v>
@@ -5245,10 +5245,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C16" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D16" t="s">
         <v>1548</v>
@@ -5259,10 +5259,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C17" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D17" t="s">
         <v>1548</v>
@@ -5273,10 +5273,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C18" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D18" t="s">
         <v>1548</v>
@@ -5329,10 +5329,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C22" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D22" t="s">
         <v>1548</v>
@@ -5343,10 +5343,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C23" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D23" t="s">
         <v>1548</v>
@@ -5357,10 +5357,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C24" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D24" t="s">
         <v>1548</v>
@@ -5371,10 +5371,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C25" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D25" t="s">
         <v>1548</v>
@@ -5385,10 +5385,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C26" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D26" t="s">
         <v>1548</v>
@@ -5399,10 +5399,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C27" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D27" t="s">
         <v>1548</v>
@@ -5413,10 +5413,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C28" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D28" t="s">
         <v>1548</v>
@@ -5427,10 +5427,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C29" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D29" t="s">
         <v>1548</v>
@@ -5441,10 +5441,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C30" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D30" t="s">
         <v>1548</v>
@@ -5455,10 +5455,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C31" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D31" t="s">
         <v>1549</v>
@@ -5469,10 +5469,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C32" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D32" t="s">
         <v>1549</v>
@@ -5483,10 +5483,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C33" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D33" t="s">
         <v>1549</v>
@@ -5497,10 +5497,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C34" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D34" t="s">
         <v>1549</v>
@@ -5511,10 +5511,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C35" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D35" t="s">
         <v>1549</v>
@@ -5525,10 +5525,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C36" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D36" t="s">
         <v>1549</v>
@@ -5539,10 +5539,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C37" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D37" t="s">
         <v>1549</v>
@@ -5553,10 +5553,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C38" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D38" t="s">
         <v>1549</v>
@@ -5567,10 +5567,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C39" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D39" t="s">
         <v>1549</v>
@@ -5581,10 +5581,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C40" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D40" t="s">
         <v>1549</v>
@@ -5595,10 +5595,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C41" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D41" t="s">
         <v>1549</v>
@@ -5609,10 +5609,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C42" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D42" t="s">
         <v>1549</v>
@@ -5623,10 +5623,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C43" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D43" t="s">
         <v>1549</v>
@@ -5637,10 +5637,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C44" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D44" t="s">
         <v>1549</v>
@@ -5651,10 +5651,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C45" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D45" t="s">
         <v>1549</v>
@@ -5665,10 +5665,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C46" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D46" t="s">
         <v>1549</v>
@@ -5679,10 +5679,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C47" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D47" t="s">
         <v>1549</v>
@@ -5693,10 +5693,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C48" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D48" t="s">
         <v>1549</v>
@@ -5707,10 +5707,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C49" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D49" t="s">
         <v>1549</v>
@@ -5721,10 +5721,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C50" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D50" t="s">
         <v>1549</v>
@@ -5735,10 +5735,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C51" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D51" t="s">
         <v>1549</v>
@@ -5749,10 +5749,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C52" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D52" t="s">
         <v>1549</v>
@@ -5763,10 +5763,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C53" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D53" t="s">
         <v>1549</v>
@@ -5777,10 +5777,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C54" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D54" t="s">
         <v>1549</v>
@@ -5791,10 +5791,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C55" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D55" t="s">
         <v>1549</v>
@@ -5805,10 +5805,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C56" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D56" t="s">
         <v>1549</v>
@@ -5819,10 +5819,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C57" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D57" t="s">
         <v>1549</v>
@@ -5833,10 +5833,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C58" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D58" t="s">
         <v>1549</v>
@@ -5847,10 +5847,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C59" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D59" t="s">
         <v>1549</v>
@@ -5861,10 +5861,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C60" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D60" t="s">
         <v>1549</v>
@@ -5875,10 +5875,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C61" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D61" t="s">
         <v>1549</v>
@@ -5889,10 +5889,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C62" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D62" t="s">
         <v>1549</v>
@@ -5903,10 +5903,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C63" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D63" t="s">
         <v>1549</v>
@@ -5917,10 +5917,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C64" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D64" t="s">
         <v>1549</v>
@@ -5931,10 +5931,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C65" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D65" t="s">
         <v>1549</v>
@@ -5945,10 +5945,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C66" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D66" t="s">
         <v>1549</v>
@@ -5959,10 +5959,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C67" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D67" t="s">
         <v>1549</v>
@@ -5973,10 +5973,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C68" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D68" t="s">
         <v>1549</v>
@@ -5987,10 +5987,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C69" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D69" t="s">
         <v>1549</v>
@@ -6001,10 +6001,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C70" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D70" t="s">
         <v>1549</v>
@@ -6015,10 +6015,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C71" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D71" t="s">
         <v>1549</v>
@@ -6029,10 +6029,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C72" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D72" t="s">
         <v>1549</v>
@@ -6043,10 +6043,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C73" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D73" t="s">
         <v>1549</v>
@@ -6057,10 +6057,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C74" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D74" t="s">
         <v>1549</v>
@@ -6071,10 +6071,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C75" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D75" t="s">
         <v>1549</v>
@@ -6085,10 +6085,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C76" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D76" t="s">
         <v>1549</v>
@@ -6099,10 +6099,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C77" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D77" t="s">
         <v>1549</v>
@@ -6113,10 +6113,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C78" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D78" t="s">
         <v>1549</v>
@@ -6127,10 +6127,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C79" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D79" t="s">
         <v>1549</v>
@@ -6141,10 +6141,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C80" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D80" t="s">
         <v>1549</v>
@@ -6155,10 +6155,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C81" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D81" t="s">
         <v>1549</v>
@@ -6169,10 +6169,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C82" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D82" t="s">
         <v>1549</v>
@@ -6183,10 +6183,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C83" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D83" t="s">
         <v>1549</v>
@@ -6197,10 +6197,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C84" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D84" t="s">
         <v>1549</v>
@@ -6211,10 +6211,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C85" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D85" t="s">
         <v>1549</v>
@@ -6225,10 +6225,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C86" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D86" t="s">
         <v>1549</v>
@@ -6239,10 +6239,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C87" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D87" t="s">
         <v>1549</v>
@@ -6253,10 +6253,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C88" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D88" t="s">
         <v>1549</v>
@@ -6267,10 +6267,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C89" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D89" t="s">
         <v>1549</v>
@@ -6281,10 +6281,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C90" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D90" t="s">
         <v>1549</v>
@@ -6295,10 +6295,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C91" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D91" t="s">
         <v>1549</v>
@@ -6309,10 +6309,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C92" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D92" t="s">
         <v>1549</v>
@@ -6323,10 +6323,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C93" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D93" t="s">
         <v>1549</v>
@@ -6337,10 +6337,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C94" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D94" t="s">
         <v>1549</v>
@@ -6351,10 +6351,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C95" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D95" t="s">
         <v>1549</v>
@@ -6365,10 +6365,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C96" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D96" t="s">
         <v>1549</v>
@@ -6379,10 +6379,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C97" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D97" t="s">
         <v>1549</v>
@@ -6393,10 +6393,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C98" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D98" t="s">
         <v>1549</v>
@@ -6407,10 +6407,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C99" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D99" t="s">
         <v>1549</v>
@@ -6421,10 +6421,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C100" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D100" t="s">
         <v>1549</v>
@@ -6435,10 +6435,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C101" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D101" t="s">
         <v>1549</v>
@@ -6449,10 +6449,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C102" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D102" t="s">
         <v>1549</v>
@@ -6463,10 +6463,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C103" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D103" t="s">
         <v>1549</v>
@@ -6477,10 +6477,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C104" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D104" t="s">
         <v>1549</v>
@@ -6491,10 +6491,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C105" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D105" t="s">
         <v>1549</v>
@@ -6505,10 +6505,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C106" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D106" t="s">
         <v>1549</v>
@@ -6519,10 +6519,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C107" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D107" t="s">
         <v>1549</v>
@@ -6533,10 +6533,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C108" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D108" t="s">
         <v>1549</v>
@@ -6547,10 +6547,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C109" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D109" t="s">
         <v>1549</v>
@@ -6561,10 +6561,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C110" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D110" t="s">
         <v>1549</v>
@@ -6575,10 +6575,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C111" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D111" t="s">
         <v>1549</v>
@@ -6589,10 +6589,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C112" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D112" t="s">
         <v>1549</v>
@@ -6603,10 +6603,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C113" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D113" t="s">
         <v>1549</v>
@@ -6617,10 +6617,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C114" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D114" t="s">
         <v>1549</v>
@@ -6631,10 +6631,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C115" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D115" t="s">
         <v>1549</v>
@@ -6645,10 +6645,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C116" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D116" t="s">
         <v>1549</v>
@@ -6659,10 +6659,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C117" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D117" t="s">
         <v>1549</v>
@@ -6673,10 +6673,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C118" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D118" t="s">
         <v>1549</v>
@@ -6687,10 +6687,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C119" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D119" t="s">
         <v>1549</v>
@@ -6701,10 +6701,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C120" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D120" t="s">
         <v>1549</v>
@@ -6715,10 +6715,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C121" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D121" t="s">
         <v>1549</v>
@@ -6729,10 +6729,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C122" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D122" t="s">
         <v>1549</v>
@@ -6743,10 +6743,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C123" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D123" t="s">
         <v>1549</v>
@@ -6757,10 +6757,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C124" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D124" t="s">
         <v>1549</v>
@@ -6771,10 +6771,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C125" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D125" t="s">
         <v>1549</v>
@@ -6785,10 +6785,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C126" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D126" t="s">
         <v>1549</v>
@@ -6799,10 +6799,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C127" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D127" t="s">
         <v>1549</v>
@@ -6813,10 +6813,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C128" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D128" t="s">
         <v>1549</v>
@@ -6827,10 +6827,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C129" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D129" t="s">
         <v>1549</v>
@@ -6841,10 +6841,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C130" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D130" t="s">
         <v>1549</v>
@@ -6855,10 +6855,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C131" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D131" t="s">
         <v>1549</v>
@@ -6869,10 +6869,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C132" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D132" t="s">
         <v>1549</v>
@@ -6883,10 +6883,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C133" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D133" t="s">
         <v>1549</v>
@@ -6897,10 +6897,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C134" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D134" t="s">
         <v>1549</v>
@@ -6911,10 +6911,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C135" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D135" t="s">
         <v>1549</v>
@@ -6925,10 +6925,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C136" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D136" t="s">
         <v>1549</v>
@@ -6939,10 +6939,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C137" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D137" t="s">
         <v>1549</v>
@@ -6953,10 +6953,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C138" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D138" t="s">
         <v>1549</v>
@@ -6967,10 +6967,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C139" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D139" t="s">
         <v>1549</v>
@@ -6981,10 +6981,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C140" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D140" t="s">
         <v>1549</v>
@@ -6995,10 +6995,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C141" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D141" t="s">
         <v>1549</v>
@@ -7009,10 +7009,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C142" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D142" t="s">
         <v>1549</v>
@@ -7023,10 +7023,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C143" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D143" t="s">
         <v>1549</v>
@@ -7037,10 +7037,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C144" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D144" t="s">
         <v>1549</v>
@@ -7051,10 +7051,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C145" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D145" t="s">
         <v>1549</v>
@@ -7065,10 +7065,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C146" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D146" t="s">
         <v>1549</v>
@@ -7079,10 +7079,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C147" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D147" t="s">
         <v>1549</v>
@@ -7093,10 +7093,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C148" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D148" t="s">
         <v>1549</v>
@@ -7107,10 +7107,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C149" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D149" t="s">
         <v>1549</v>
@@ -7121,10 +7121,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C150" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D150" t="s">
         <v>1549</v>
@@ -7135,10 +7135,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C151" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D151" t="s">
         <v>1549</v>
@@ -7149,10 +7149,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C152" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D152" t="s">
         <v>1549</v>
@@ -7163,10 +7163,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C153" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D153" t="s">
         <v>1549</v>
@@ -7177,10 +7177,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C154" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D154" t="s">
         <v>1549</v>
@@ -7191,10 +7191,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C155" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D155" t="s">
         <v>1549</v>
@@ -7205,10 +7205,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C156" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D156" t="s">
         <v>1549</v>
@@ -7219,10 +7219,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C157" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D157" t="s">
         <v>1549</v>
@@ -7233,10 +7233,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C158" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D158" t="s">
         <v>1549</v>
@@ -7247,10 +7247,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C159" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D159" t="s">
         <v>1549</v>
@@ -7261,10 +7261,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C160" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D160" t="s">
         <v>1549</v>
@@ -7275,10 +7275,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C161" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D161" t="s">
         <v>1549</v>
@@ -7289,10 +7289,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C162" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D162" t="s">
         <v>1549</v>
@@ -7303,10 +7303,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C163" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D163" t="s">
         <v>1549</v>
@@ -7317,10 +7317,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C164" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D164" t="s">
         <v>1549</v>
@@ -7331,10 +7331,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C165" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D165" t="s">
         <v>1549</v>
@@ -7345,10 +7345,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C166" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D166" t="s">
         <v>1549</v>
@@ -7359,10 +7359,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C167" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D167" t="s">
         <v>1549</v>
@@ -7373,10 +7373,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C168" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D168" t="s">
         <v>1549</v>
@@ -7387,10 +7387,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C169" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D169" t="s">
         <v>1549</v>
@@ -7401,10 +7401,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C170" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D170" t="s">
         <v>1549</v>
@@ -7415,10 +7415,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C171" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D171" t="s">
         <v>1549</v>
@@ -7429,10 +7429,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C172" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D172" t="s">
         <v>1549</v>
@@ -7443,10 +7443,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C173" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D173" t="s">
         <v>1549</v>
@@ -7457,10 +7457,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C174" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D174" t="s">
         <v>1549</v>
@@ -7471,10 +7471,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C175" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D175" t="s">
         <v>1549</v>
@@ -7485,10 +7485,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C176" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D176" t="s">
         <v>1549</v>
@@ -7499,10 +7499,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C177" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D177" t="s">
         <v>1549</v>
@@ -7513,10 +7513,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C178" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D178" t="s">
         <v>1549</v>
@@ -7527,10 +7527,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C179" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D179" t="s">
         <v>1549</v>
@@ -7541,10 +7541,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C180" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D180" t="s">
         <v>1549</v>
@@ -7555,10 +7555,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C181" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D181" t="s">
         <v>1549</v>
@@ -7569,10 +7569,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C182" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D182" t="s">
         <v>1549</v>
@@ -7583,10 +7583,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C183" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D183" t="s">
         <v>1549</v>
@@ -7597,10 +7597,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C184" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D184" t="s">
         <v>1549</v>
@@ -7611,10 +7611,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C185" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D185" t="s">
         <v>1549</v>
@@ -7625,10 +7625,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C186" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D186" t="s">
         <v>1549</v>
@@ -7639,10 +7639,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C187" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D187" t="s">
         <v>1549</v>
@@ -7653,10 +7653,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C188" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D188" t="s">
         <v>1549</v>
@@ -7667,10 +7667,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C189" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D189" t="s">
         <v>1549</v>
@@ -7681,10 +7681,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C190" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D190" t="s">
         <v>1549</v>
@@ -7695,10 +7695,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C191" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D191" t="s">
         <v>1549</v>
@@ -7709,10 +7709,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C192" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D192" t="s">
         <v>1549</v>
@@ -7723,10 +7723,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C193" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D193" t="s">
         <v>1549</v>
@@ -7737,10 +7737,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C194" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D194" t="s">
         <v>1549</v>
@@ -7751,10 +7751,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C195" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D195" t="s">
         <v>1549</v>
@@ -7765,10 +7765,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C196" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D196" t="s">
         <v>1549</v>
@@ -7779,10 +7779,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C197" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D197" t="s">
         <v>1549</v>
@@ -7793,10 +7793,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C198" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D198" t="s">
         <v>1549</v>
@@ -7807,10 +7807,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C199" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D199" t="s">
         <v>1549</v>
@@ -7821,10 +7821,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C200" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D200" t="s">
         <v>1549</v>
@@ -7835,10 +7835,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C201" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D201" t="s">
         <v>1549</v>
@@ -7849,10 +7849,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C202" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D202" t="s">
         <v>1549</v>
@@ -7863,10 +7863,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C203" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D203" t="s">
         <v>1549</v>
@@ -7877,10 +7877,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C204" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D204" t="s">
         <v>1549</v>
@@ -7891,10 +7891,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C205" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D205" t="s">
         <v>1549</v>
@@ -7905,10 +7905,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C206" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D206" t="s">
         <v>1549</v>
@@ -7919,10 +7919,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C207" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D207" t="s">
         <v>1549</v>
@@ -7933,10 +7933,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C208" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D208" t="s">
         <v>1549</v>
@@ -7947,10 +7947,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C209" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D209" t="s">
         <v>1549</v>
@@ -7961,10 +7961,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C210" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D210" t="s">
         <v>1549</v>
@@ -7975,10 +7975,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C211" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D211" t="s">
         <v>1549</v>
@@ -7989,10 +7989,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C212" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D212" t="s">
         <v>1549</v>
@@ -8003,10 +8003,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C213" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D213" t="s">
         <v>1549</v>
@@ -8017,10 +8017,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C214" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D214" t="s">
         <v>1549</v>
@@ -8031,10 +8031,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C215" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D215" t="s">
         <v>1549</v>
@@ -8045,10 +8045,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C216" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D216" t="s">
         <v>1549</v>
@@ -8059,10 +8059,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C217" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D217" t="s">
         <v>1549</v>
@@ -8073,10 +8073,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C218" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D218" t="s">
         <v>1549</v>
@@ -8087,10 +8087,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C219" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D219" t="s">
         <v>1549</v>
@@ -8101,10 +8101,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C220" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D220" t="s">
         <v>1549</v>
@@ -8115,10 +8115,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C221" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D221" t="s">
         <v>1549</v>
@@ -8129,10 +8129,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C222" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D222" t="s">
         <v>1549</v>
@@ -8143,10 +8143,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C223" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D223" t="s">
         <v>1549</v>
@@ -8157,10 +8157,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C224" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D224" t="s">
         <v>1549</v>
@@ -8171,10 +8171,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C225" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D225" t="s">
         <v>1549</v>
@@ -8185,10 +8185,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C226" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D226" t="s">
         <v>1549</v>
@@ -8199,10 +8199,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C227" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D227" t="s">
         <v>1549</v>
@@ -8213,10 +8213,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C228" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D228" t="s">
         <v>1549</v>
@@ -8227,10 +8227,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C229" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D229" t="s">
         <v>1549</v>
@@ -8241,10 +8241,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C230" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D230" t="s">
         <v>1549</v>
@@ -8255,10 +8255,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C231" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D231" t="s">
         <v>1549</v>
@@ -8269,10 +8269,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C232" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D232" t="s">
         <v>1549</v>
@@ -8283,10 +8283,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C233" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D233" t="s">
         <v>1549</v>
@@ -8297,10 +8297,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C234" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D234" t="s">
         <v>1549</v>
@@ -8311,10 +8311,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C235" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D235" t="s">
         <v>1549</v>
@@ -8325,10 +8325,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C236" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D236" t="s">
         <v>1549</v>
@@ -8339,10 +8339,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C237" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D237" t="s">
         <v>1549</v>
@@ -8353,10 +8353,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C238" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D238" t="s">
         <v>1549</v>
@@ -8367,10 +8367,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C239" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D239" t="s">
         <v>1549</v>
@@ -8381,10 +8381,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C240" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D240" t="s">
         <v>1549</v>
@@ -8395,10 +8395,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C241" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D241" t="s">
         <v>1549</v>
@@ -8409,10 +8409,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C242" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D242" t="s">
         <v>1549</v>
@@ -8423,10 +8423,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C243" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D243" t="s">
         <v>1549</v>
@@ -8437,10 +8437,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C244" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D244" t="s">
         <v>1549</v>
@@ -8451,10 +8451,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C245" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D245" t="s">
         <v>1549</v>
@@ -8465,10 +8465,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C246" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D246" t="s">
         <v>1549</v>
@@ -8479,10 +8479,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C247" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D247" t="s">
         <v>1549</v>
@@ -8493,10 +8493,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C248" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D248" t="s">
         <v>1549</v>
@@ -8507,10 +8507,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C249" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D249" t="s">
         <v>1549</v>
@@ -8521,10 +8521,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C250" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D250" t="s">
         <v>1549</v>
@@ -8535,10 +8535,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C251" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D251" t="s">
         <v>1549</v>
@@ -8549,10 +8549,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C252" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D252" t="s">
         <v>1549</v>
@@ -8563,10 +8563,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C253" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D253" t="s">
         <v>1549</v>
@@ -8577,10 +8577,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C254" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D254" t="s">
         <v>1549</v>
@@ -8591,10 +8591,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C255" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D255" t="s">
         <v>1549</v>
@@ -8605,10 +8605,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C256" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D256" t="s">
         <v>1549</v>
@@ -8619,10 +8619,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C257" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D257" t="s">
         <v>1549</v>
@@ -8633,10 +8633,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C258" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D258" t="s">
         <v>1549</v>
@@ -8647,10 +8647,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C259" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D259" t="s">
         <v>1549</v>
@@ -8661,10 +8661,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C260" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D260" t="s">
         <v>1549</v>
@@ -8675,10 +8675,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C261" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D261" t="s">
         <v>1549</v>
@@ -8689,10 +8689,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C262" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D262" t="s">
         <v>1549</v>
@@ -8703,10 +8703,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C263" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D263" t="s">
         <v>1549</v>
@@ -8717,10 +8717,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C264" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D264" t="s">
         <v>1549</v>
@@ -8731,10 +8731,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C265" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D265" t="s">
         <v>1549</v>
@@ -8745,10 +8745,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C266" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D266" t="s">
         <v>1549</v>
@@ -8759,10 +8759,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C267" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D267" t="s">
         <v>1549</v>
@@ -8773,10 +8773,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C268" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D268" t="s">
         <v>1549</v>
@@ -8787,10 +8787,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C269" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D269" t="s">
         <v>1549</v>
@@ -8801,10 +8801,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C270" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D270" t="s">
         <v>1549</v>
@@ -8815,10 +8815,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C271" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D271" t="s">
         <v>1549</v>
@@ -8829,10 +8829,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C272" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D272" t="s">
         <v>1549</v>
@@ -8843,10 +8843,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C273" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D273" t="s">
         <v>1549</v>
@@ -8857,10 +8857,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C274" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D274" t="s">
         <v>1549</v>
@@ -8871,10 +8871,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C275" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D275" t="s">
         <v>1549</v>
@@ -8885,10 +8885,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C276" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D276" t="s">
         <v>1549</v>
@@ -8899,10 +8899,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C277" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D277" t="s">
         <v>1549</v>
@@ -8913,10 +8913,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C278" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D278" t="s">
         <v>1549</v>
@@ -8927,10 +8927,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C279" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D279" t="s">
         <v>1549</v>
@@ -8941,10 +8941,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C280" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D280" t="s">
         <v>1549</v>
@@ -8955,10 +8955,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C281" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D281" t="s">
         <v>1549</v>
@@ -8969,10 +8969,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C282" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D282" t="s">
         <v>1549</v>
@@ -8983,10 +8983,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C283" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D283" t="s">
         <v>1549</v>
@@ -8997,10 +8997,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C284" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D284" t="s">
         <v>1549</v>
@@ -9011,10 +9011,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C285" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D285" t="s">
         <v>1549</v>
@@ -9025,10 +9025,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C286" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D286" t="s">
         <v>1549</v>
@@ -9039,10 +9039,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C287" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D287" t="s">
         <v>1549</v>
@@ -9053,10 +9053,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C288" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D288" t="s">
         <v>1549</v>
@@ -9067,10 +9067,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C289" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D289" t="s">
         <v>1549</v>
@@ -9081,10 +9081,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C290" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D290" t="s">
         <v>1549</v>
@@ -9095,10 +9095,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C291" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D291" t="s">
         <v>1549</v>
@@ -9109,10 +9109,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C292" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D292" t="s">
         <v>1549</v>
@@ -9123,10 +9123,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C293" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D293" t="s">
         <v>1549</v>
@@ -9137,10 +9137,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C294" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D294" t="s">
         <v>1549</v>
@@ -9151,10 +9151,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C295" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D295" t="s">
         <v>1549</v>
@@ -9165,10 +9165,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C296" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D296" t="s">
         <v>1549</v>
@@ -9179,10 +9179,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C297" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D297" t="s">
         <v>1549</v>
@@ -9193,10 +9193,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C298" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D298" t="s">
         <v>1549</v>
@@ -9207,10 +9207,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C299" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D299" t="s">
         <v>1549</v>
@@ -9221,10 +9221,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C300" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D300" t="s">
         <v>1549</v>
@@ -9235,10 +9235,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C301" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D301" t="s">
         <v>1549</v>
@@ -9249,10 +9249,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C302" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D302" t="s">
         <v>1549</v>
@@ -9263,10 +9263,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C303" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D303" t="s">
         <v>1549</v>
@@ -9277,10 +9277,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C304" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D304" t="s">
         <v>1549</v>
@@ -9291,10 +9291,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C305" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D305" t="s">
         <v>1549</v>
@@ -9305,10 +9305,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C306" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D306" t="s">
         <v>1549</v>
@@ -9319,10 +9319,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C307" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D307" t="s">
         <v>1549</v>
@@ -9333,10 +9333,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C308" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D308" t="s">
         <v>1549</v>
@@ -9347,10 +9347,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C309" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D309" t="s">
         <v>1549</v>
@@ -9361,10 +9361,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C310" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D310" t="s">
         <v>1549</v>
@@ -9375,10 +9375,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C311" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D311" t="s">
         <v>1549</v>
@@ -9389,10 +9389,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C312" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D312" t="s">
         <v>1549</v>
@@ -9403,10 +9403,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C313" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D313" t="s">
         <v>1549</v>
@@ -9417,10 +9417,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C314" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D314" t="s">
         <v>1549</v>
@@ -9431,10 +9431,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C315" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D315" t="s">
         <v>1549</v>
@@ -9445,10 +9445,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C316" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D316" t="s">
         <v>1549</v>
@@ -9459,10 +9459,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C317" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D317" t="s">
         <v>1549</v>
@@ -9473,10 +9473,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C318" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D318" t="s">
         <v>1549</v>
@@ -9487,10 +9487,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C319" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D319" t="s">
         <v>1549</v>
@@ -9501,10 +9501,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C320" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D320" t="s">
         <v>1549</v>
@@ -9515,10 +9515,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C321" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D321" t="s">
         <v>1549</v>
@@ -9529,10 +9529,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C322" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D322" t="s">
         <v>1549</v>
@@ -9543,10 +9543,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C323" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D323" t="s">
         <v>1549</v>
@@ -9557,10 +9557,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C324" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D324" t="s">
         <v>1549</v>
@@ -9571,10 +9571,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C325" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D325" t="s">
         <v>1549</v>
@@ -9585,10 +9585,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C326" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D326" t="s">
         <v>1549</v>
@@ -9599,10 +9599,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C327" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D327" t="s">
         <v>1549</v>
@@ -9613,10 +9613,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C328" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D328" t="s">
         <v>1549</v>
@@ -9627,10 +9627,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C329" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D329" t="s">
         <v>1549</v>
@@ -9641,10 +9641,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C330" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D330" t="s">
         <v>1549</v>
@@ -9655,10 +9655,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C331" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D331" t="s">
         <v>1549</v>
@@ -9669,10 +9669,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C332" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D332" t="s">
         <v>1549</v>
@@ -9683,10 +9683,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C333" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D333" t="s">
         <v>1549</v>
@@ -9697,10 +9697,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C334" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D334" t="s">
         <v>1549</v>
@@ -9711,10 +9711,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C335" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D335" t="s">
         <v>1549</v>
@@ -9725,10 +9725,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C336" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D336" t="s">
         <v>1549</v>
@@ -9739,10 +9739,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C337" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D337" t="s">
         <v>1549</v>
@@ -9753,10 +9753,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C338" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D338" t="s">
         <v>1549</v>
@@ -9767,10 +9767,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C339" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D339" t="s">
         <v>1549</v>
@@ -9781,10 +9781,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C340" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D340" t="s">
         <v>1549</v>
@@ -9795,10 +9795,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C341" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D341" t="s">
         <v>1549</v>
@@ -9809,10 +9809,10 @@
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C342" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D342" t="s">
         <v>1549</v>
@@ -9823,10 +9823,10 @@
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C343" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D343" t="s">
         <v>1549</v>
@@ -9837,10 +9837,10 @@
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C344" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D344" t="s">
         <v>1549</v>
@@ -9851,10 +9851,10 @@
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C345" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D345" t="s">
         <v>1549</v>
@@ -9865,10 +9865,10 @@
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C346" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D346" t="s">
         <v>1549</v>
@@ -9879,10 +9879,10 @@
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C347" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D347" t="s">
         <v>1549</v>
@@ -9893,10 +9893,10 @@
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C348" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D348" t="s">
         <v>1549</v>
@@ -9907,10 +9907,10 @@
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C349" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D349" t="s">
         <v>1549</v>
@@ -9921,10 +9921,10 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C350" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D350" t="s">
         <v>1549</v>
@@ -9935,10 +9935,10 @@
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C351" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D351" t="s">
         <v>1549</v>
@@ -9949,10 +9949,10 @@
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C352" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D352" t="s">
         <v>1549</v>
@@ -9963,10 +9963,10 @@
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C353" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D353" t="s">
         <v>1549</v>
@@ -9977,10 +9977,10 @@
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C354" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D354" t="s">
         <v>1549</v>
@@ -9991,10 +9991,10 @@
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C355" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D355" t="s">
         <v>1549</v>
@@ -10005,10 +10005,10 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C356" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D356" t="s">
         <v>1549</v>
@@ -10019,10 +10019,10 @@
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C357" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D357" t="s">
         <v>1549</v>
@@ -10033,10 +10033,10 @@
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C358" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D358" t="s">
         <v>1549</v>
@@ -10047,10 +10047,10 @@
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C359" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D359" t="s">
         <v>1549</v>
@@ -10061,10 +10061,10 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C360" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D360" t="s">
         <v>1549</v>
@@ -10075,10 +10075,10 @@
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C361" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D361" t="s">
         <v>1549</v>
@@ -10089,10 +10089,10 @@
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C362" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D362" t="s">
         <v>1549</v>
@@ -10103,10 +10103,10 @@
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C363" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D363" t="s">
         <v>1549</v>
@@ -10117,10 +10117,10 @@
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C364" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D364" t="s">
         <v>1549</v>
@@ -10131,10 +10131,10 @@
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C365" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D365" t="s">
         <v>1549</v>
@@ -10145,10 +10145,10 @@
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C366" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D366" t="s">
         <v>1549</v>
@@ -10159,10 +10159,10 @@
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C367" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D367" t="s">
         <v>1549</v>
@@ -10173,10 +10173,10 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C368" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D368" t="s">
         <v>1549</v>
@@ -10187,10 +10187,10 @@
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C369" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D369" t="s">
         <v>1549</v>
@@ -10201,10 +10201,10 @@
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C370" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D370" t="s">
         <v>1549</v>
@@ -10215,10 +10215,10 @@
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C371" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D371" t="s">
         <v>1549</v>
@@ -10229,10 +10229,10 @@
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C372" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D372" t="s">
         <v>1549</v>
@@ -10243,10 +10243,10 @@
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C373" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D373" t="s">
         <v>1549</v>
@@ -10257,10 +10257,10 @@
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C374" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D374" t="s">
         <v>1549</v>
@@ -10271,10 +10271,10 @@
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C375" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D375" t="s">
         <v>1549</v>
@@ -10285,10 +10285,10 @@
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C376" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D376" t="s">
         <v>1549</v>
@@ -10299,10 +10299,10 @@
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C377" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D377" t="s">
         <v>1549</v>
@@ -10313,10 +10313,10 @@
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C378" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D378" t="s">
         <v>1549</v>
@@ -10327,10 +10327,10 @@
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C379" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D379" t="s">
         <v>1549</v>
@@ -10341,10 +10341,10 @@
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C380" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D380" t="s">
         <v>1549</v>
@@ -10355,10 +10355,10 @@
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C381" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D381" t="s">
         <v>1549</v>
@@ -10369,10 +10369,10 @@
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C382" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D382" t="s">
         <v>1549</v>
@@ -10383,10 +10383,10 @@
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C383" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D383" t="s">
         <v>1549</v>
@@ -10397,10 +10397,10 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C384" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D384" t="s">
         <v>1549</v>
@@ -10411,10 +10411,10 @@
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C385" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D385" t="s">
         <v>1549</v>
@@ -10425,10 +10425,10 @@
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C386" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D386" t="s">
         <v>1549</v>
@@ -10439,10 +10439,10 @@
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C387" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D387" t="s">
         <v>1549</v>
@@ -10453,10 +10453,10 @@
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C388" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D388" t="s">
         <v>1549</v>
@@ -10467,10 +10467,10 @@
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C389" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D389" t="s">
         <v>1549</v>
@@ -10481,10 +10481,10 @@
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C390" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D390" t="s">
         <v>1549</v>
@@ -10495,10 +10495,10 @@
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C391" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D391" t="s">
         <v>1549</v>
@@ -10509,10 +10509,10 @@
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C392" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D392" t="s">
         <v>1549</v>
@@ -10523,10 +10523,10 @@
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C393" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D393" t="s">
         <v>1549</v>
@@ -10537,10 +10537,10 @@
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C394" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D394" t="s">
         <v>1549</v>
@@ -10551,10 +10551,10 @@
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C395" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D395" t="s">
         <v>1549</v>
@@ -10565,10 +10565,10 @@
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C396" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D396" t="s">
         <v>1549</v>
@@ -10579,10 +10579,10 @@
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C397" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D397" t="s">
         <v>1549</v>
@@ -10593,10 +10593,10 @@
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C398" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D398" t="s">
         <v>1549</v>
@@ -10607,10 +10607,10 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C399" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D399" t="s">
         <v>1549</v>
@@ -10621,10 +10621,10 @@
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C400" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D400" t="s">
         <v>1549</v>
@@ -10635,10 +10635,10 @@
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C401" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D401" t="s">
         <v>1549</v>
@@ -10649,10 +10649,10 @@
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C402" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D402" t="s">
         <v>1549</v>
@@ -10663,10 +10663,10 @@
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C403" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D403" t="s">
         <v>1549</v>
@@ -10677,10 +10677,10 @@
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C404" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D404" t="s">
         <v>1549</v>
@@ -10691,10 +10691,10 @@
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C405" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D405" t="s">
         <v>1549</v>
@@ -10705,10 +10705,10 @@
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C406" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D406" t="s">
         <v>1549</v>
@@ -10719,10 +10719,10 @@
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C407" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D407" t="s">
         <v>1549</v>
@@ -10733,10 +10733,10 @@
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C408" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D408" t="s">
         <v>1549</v>
@@ -10747,10 +10747,10 @@
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C409" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D409" t="s">
         <v>1549</v>
@@ -10761,10 +10761,10 @@
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C410" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D410" t="s">
         <v>1549</v>
@@ -10775,10 +10775,10 @@
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C411" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D411" t="s">
         <v>1549</v>
@@ -10789,10 +10789,10 @@
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C412" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D412" t="s">
         <v>1549</v>
@@ -10803,10 +10803,10 @@
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C413" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D413" t="s">
         <v>1549</v>
@@ -10817,10 +10817,10 @@
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C414" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D414" t="s">
         <v>1549</v>
@@ -10831,10 +10831,10 @@
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C415" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D415" t="s">
         <v>1549</v>
@@ -10845,10 +10845,10 @@
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C416" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D416" t="s">
         <v>1549</v>
@@ -10859,10 +10859,10 @@
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C417" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D417" t="s">
         <v>1549</v>
@@ -10873,10 +10873,10 @@
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C418" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D418" t="s">
         <v>1549</v>
@@ -10887,10 +10887,10 @@
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C419" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D419" t="s">
         <v>1549</v>
@@ -10901,10 +10901,10 @@
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C420" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D420" t="s">
         <v>1549</v>
@@ -10915,10 +10915,10 @@
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C421" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D421" t="s">
         <v>1549</v>
@@ -10929,10 +10929,10 @@
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C422" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D422" t="s">
         <v>1549</v>
@@ -10943,10 +10943,10 @@
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C423" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D423" t="s">
         <v>1549</v>
@@ -10957,10 +10957,10 @@
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C424" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D424" t="s">
         <v>1549</v>
@@ -10971,10 +10971,10 @@
         <v>427</v>
       </c>
       <c r="B425" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C425" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D425" t="s">
         <v>1549</v>
@@ -10985,10 +10985,10 @@
         <v>428</v>
       </c>
       <c r="B426" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C426" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D426" t="s">
         <v>1549</v>
@@ -10999,10 +10999,10 @@
         <v>429</v>
       </c>
       <c r="B427" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C427" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D427" t="s">
         <v>1549</v>
@@ -11013,10 +11013,10 @@
         <v>430</v>
       </c>
       <c r="B428" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C428" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D428" t="s">
         <v>1549</v>
@@ -11027,10 +11027,10 @@
         <v>431</v>
       </c>
       <c r="B429" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C429" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D429" t="s">
         <v>1549</v>
@@ -11041,10 +11041,10 @@
         <v>432</v>
       </c>
       <c r="B430" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C430" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D430" t="s">
         <v>1549</v>
@@ -11055,10 +11055,10 @@
         <v>433</v>
       </c>
       <c r="B431" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C431" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D431" t="s">
         <v>1549</v>
@@ -11069,10 +11069,10 @@
         <v>434</v>
       </c>
       <c r="B432" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C432" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D432" t="s">
         <v>1549</v>
@@ -11083,10 +11083,10 @@
         <v>435</v>
       </c>
       <c r="B433" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C433" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D433" t="s">
         <v>1549</v>
@@ -11097,10 +11097,10 @@
         <v>436</v>
       </c>
       <c r="B434" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C434" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D434" t="s">
         <v>1549</v>
@@ -11111,10 +11111,10 @@
         <v>437</v>
       </c>
       <c r="B435" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C435" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D435" t="s">
         <v>1549</v>
@@ -11125,10 +11125,10 @@
         <v>438</v>
       </c>
       <c r="B436" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C436" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D436" t="s">
         <v>1549</v>
@@ -11139,10 +11139,10 @@
         <v>439</v>
       </c>
       <c r="B437" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C437" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D437" t="s">
         <v>1549</v>
@@ -11153,10 +11153,10 @@
         <v>440</v>
       </c>
       <c r="B438" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C438" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D438" t="s">
         <v>1549</v>
@@ -11167,10 +11167,10 @@
         <v>441</v>
       </c>
       <c r="B439" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C439" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D439" t="s">
         <v>1549</v>
@@ -11181,10 +11181,10 @@
         <v>442</v>
       </c>
       <c r="B440" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C440" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D440" t="s">
         <v>1549</v>
@@ -11195,10 +11195,10 @@
         <v>443</v>
       </c>
       <c r="B441" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C441" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D441" t="s">
         <v>1549</v>
@@ -11209,10 +11209,10 @@
         <v>444</v>
       </c>
       <c r="B442" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C442" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D442" t="s">
         <v>1549</v>
@@ -11223,10 +11223,10 @@
         <v>445</v>
       </c>
       <c r="B443" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C443" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D443" t="s">
         <v>1549</v>
@@ -11237,10 +11237,10 @@
         <v>446</v>
       </c>
       <c r="B444" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C444" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D444" t="s">
         <v>1549</v>
@@ -11251,10 +11251,10 @@
         <v>447</v>
       </c>
       <c r="B445" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C445" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D445" t="s">
         <v>1549</v>
@@ -11265,10 +11265,10 @@
         <v>448</v>
       </c>
       <c r="B446" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C446" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D446" t="s">
         <v>1549</v>
@@ -11279,10 +11279,10 @@
         <v>449</v>
       </c>
       <c r="B447" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C447" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D447" t="s">
         <v>1549</v>
@@ -11293,10 +11293,10 @@
         <v>450</v>
       </c>
       <c r="B448" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C448" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D448" t="s">
         <v>1549</v>
@@ -11307,10 +11307,10 @@
         <v>451</v>
       </c>
       <c r="B449" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C449" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D449" t="s">
         <v>1549</v>
@@ -11321,10 +11321,10 @@
         <v>452</v>
       </c>
       <c r="B450" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C450" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D450" t="s">
         <v>1549</v>
@@ -11335,10 +11335,10 @@
         <v>453</v>
       </c>
       <c r="B451" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C451" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D451" t="s">
         <v>1549</v>
@@ -11349,10 +11349,10 @@
         <v>454</v>
       </c>
       <c r="B452" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C452" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D452" t="s">
         <v>1549</v>
@@ -11363,10 +11363,10 @@
         <v>455</v>
       </c>
       <c r="B453" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C453" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D453" t="s">
         <v>1549</v>
@@ -11377,10 +11377,10 @@
         <v>456</v>
       </c>
       <c r="B454" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C454" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D454" t="s">
         <v>1549</v>
@@ -11391,10 +11391,10 @@
         <v>457</v>
       </c>
       <c r="B455" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C455" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D455" t="s">
         <v>1549</v>
@@ -11405,10 +11405,10 @@
         <v>458</v>
       </c>
       <c r="B456" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C456" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D456" t="s">
         <v>1549</v>
@@ -11419,10 +11419,10 @@
         <v>459</v>
       </c>
       <c r="B457" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C457" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D457" t="s">
         <v>1549</v>
@@ -11433,10 +11433,10 @@
         <v>460</v>
       </c>
       <c r="B458" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C458" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D458" t="s">
         <v>1549</v>
@@ -11447,10 +11447,10 @@
         <v>461</v>
       </c>
       <c r="B459" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C459" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D459" t="s">
         <v>1549</v>
@@ -11461,10 +11461,10 @@
         <v>462</v>
       </c>
       <c r="B460" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C460" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D460" t="s">
         <v>1549</v>
@@ -11475,10 +11475,10 @@
         <v>463</v>
       </c>
       <c r="B461" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C461" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D461" t="s">
         <v>1549</v>
@@ -11489,10 +11489,10 @@
         <v>464</v>
       </c>
       <c r="B462" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C462" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D462" t="s">
         <v>1549</v>
@@ -11503,10 +11503,10 @@
         <v>465</v>
       </c>
       <c r="B463" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C463" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D463" t="s">
         <v>1549</v>
@@ -11517,10 +11517,10 @@
         <v>466</v>
       </c>
       <c r="B464" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C464" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D464" t="s">
         <v>1549</v>
@@ -11531,10 +11531,10 @@
         <v>467</v>
       </c>
       <c r="B465" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C465" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D465" t="s">
         <v>1549</v>
@@ -11545,10 +11545,10 @@
         <v>468</v>
       </c>
       <c r="B466" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C466" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D466" t="s">
         <v>1549</v>
@@ -11559,10 +11559,10 @@
         <v>469</v>
       </c>
       <c r="B467" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C467" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D467" t="s">
         <v>1549</v>
@@ -11573,10 +11573,10 @@
         <v>470</v>
       </c>
       <c r="B468" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C468" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D468" t="s">
         <v>1549</v>
@@ -11587,10 +11587,10 @@
         <v>471</v>
       </c>
       <c r="B469" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C469" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D469" t="s">
         <v>1549</v>
@@ -11601,10 +11601,10 @@
         <v>472</v>
       </c>
       <c r="B470" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C470" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D470" t="s">
         <v>1549</v>
@@ -11615,10 +11615,10 @@
         <v>473</v>
       </c>
       <c r="B471" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C471" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D471" t="s">
         <v>1549</v>
@@ -11629,10 +11629,10 @@
         <v>474</v>
       </c>
       <c r="B472" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C472" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D472" t="s">
         <v>1549</v>
@@ -11643,10 +11643,10 @@
         <v>475</v>
       </c>
       <c r="B473" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C473" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D473" t="s">
         <v>1549</v>
@@ -11657,10 +11657,10 @@
         <v>476</v>
       </c>
       <c r="B474" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C474" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D474" t="s">
         <v>1549</v>
@@ -11671,10 +11671,10 @@
         <v>477</v>
       </c>
       <c r="B475" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C475" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D475" t="s">
         <v>1549</v>
@@ -11685,10 +11685,10 @@
         <v>478</v>
       </c>
       <c r="B476" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C476" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D476" t="s">
         <v>1549</v>
@@ -11699,10 +11699,10 @@
         <v>479</v>
       </c>
       <c r="B477" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C477" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D477" t="s">
         <v>1549</v>
@@ -11713,10 +11713,10 @@
         <v>480</v>
       </c>
       <c r="B478" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C478" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D478" t="s">
         <v>1549</v>
@@ -11727,10 +11727,10 @@
         <v>481</v>
       </c>
       <c r="B479" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C479" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D479" t="s">
         <v>1549</v>
@@ -11741,10 +11741,10 @@
         <v>482</v>
       </c>
       <c r="B480" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C480" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D480" t="s">
         <v>1549</v>
@@ -11755,10 +11755,10 @@
         <v>483</v>
       </c>
       <c r="B481" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C481" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D481" t="s">
         <v>1549</v>
@@ -11769,10 +11769,10 @@
         <v>484</v>
       </c>
       <c r="B482" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C482" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D482" t="s">
         <v>1549</v>
@@ -11783,10 +11783,10 @@
         <v>485</v>
       </c>
       <c r="B483" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C483" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D483" t="s">
         <v>1549</v>
@@ -11797,10 +11797,10 @@
         <v>486</v>
       </c>
       <c r="B484" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C484" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D484" t="s">
         <v>1549</v>
@@ -11811,10 +11811,10 @@
         <v>487</v>
       </c>
       <c r="B485" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C485" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D485" t="s">
         <v>1549</v>
@@ -11825,10 +11825,10 @@
         <v>488</v>
       </c>
       <c r="B486" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C486" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D486" t="s">
         <v>1549</v>
@@ -11839,10 +11839,10 @@
         <v>489</v>
       </c>
       <c r="B487" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C487" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D487" t="s">
         <v>1549</v>
@@ -11853,10 +11853,10 @@
         <v>490</v>
       </c>
       <c r="B488" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C488" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D488" t="s">
         <v>1549</v>
@@ -11867,10 +11867,10 @@
         <v>491</v>
       </c>
       <c r="B489" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C489" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D489" t="s">
         <v>1549</v>
@@ -11881,10 +11881,10 @@
         <v>492</v>
       </c>
       <c r="B490" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C490" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D490" t="s">
         <v>1549</v>
@@ -11895,10 +11895,10 @@
         <v>493</v>
       </c>
       <c r="B491" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C491" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D491" t="s">
         <v>1549</v>
@@ -11909,10 +11909,10 @@
         <v>494</v>
       </c>
       <c r="B492" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C492" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D492" t="s">
         <v>1549</v>
@@ -11923,10 +11923,10 @@
         <v>495</v>
       </c>
       <c r="B493" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C493" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D493" t="s">
         <v>1549</v>
@@ -11937,10 +11937,10 @@
         <v>496</v>
       </c>
       <c r="B494" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C494" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D494" t="s">
         <v>1549</v>
@@ -11951,10 +11951,10 @@
         <v>497</v>
       </c>
       <c r="B495" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C495" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D495" t="s">
         <v>1549</v>
@@ -11965,10 +11965,10 @@
         <v>498</v>
       </c>
       <c r="B496" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C496" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D496" t="s">
         <v>1549</v>
@@ -11979,10 +11979,10 @@
         <v>499</v>
       </c>
       <c r="B497" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C497" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D497" t="s">
         <v>1549</v>
@@ -11993,10 +11993,10 @@
         <v>500</v>
       </c>
       <c r="B498" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C498" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D498" t="s">
         <v>1549</v>
@@ -12007,10 +12007,10 @@
         <v>501</v>
       </c>
       <c r="B499" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C499" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D499" t="s">
         <v>1549</v>
@@ -12021,10 +12021,10 @@
         <v>502</v>
       </c>
       <c r="B500" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C500" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D500" t="s">
         <v>1549</v>
@@ -12035,10 +12035,10 @@
         <v>503</v>
       </c>
       <c r="B501" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C501" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D501" t="s">
         <v>1549</v>
@@ -12049,10 +12049,10 @@
         <v>504</v>
       </c>
       <c r="B502" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C502" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D502" t="s">
         <v>1549</v>
@@ -12063,10 +12063,10 @@
         <v>505</v>
       </c>
       <c r="B503" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C503" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D503" t="s">
         <v>1549</v>
@@ -12077,10 +12077,10 @@
         <v>506</v>
       </c>
       <c r="B504" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C504" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D504" t="s">
         <v>1549</v>
@@ -12091,10 +12091,10 @@
         <v>507</v>
       </c>
       <c r="B505" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C505" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D505" t="s">
         <v>1549</v>
@@ -12105,10 +12105,10 @@
         <v>508</v>
       </c>
       <c r="B506" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C506" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D506" t="s">
         <v>1549</v>
@@ -12119,10 +12119,10 @@
         <v>509</v>
       </c>
       <c r="B507" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C507" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D507" t="s">
         <v>1549</v>
@@ -12133,10 +12133,10 @@
         <v>510</v>
       </c>
       <c r="B508" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C508" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D508" t="s">
         <v>1549</v>
@@ -12147,10 +12147,10 @@
         <v>511</v>
       </c>
       <c r="B509" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C509" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D509" t="s">
         <v>1549</v>
@@ -12161,10 +12161,10 @@
         <v>512</v>
       </c>
       <c r="B510" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C510" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D510" t="s">
         <v>1549</v>
@@ -12175,10 +12175,10 @@
         <v>513</v>
       </c>
       <c r="B511" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C511" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D511" t="s">
         <v>1549</v>
@@ -12189,10 +12189,10 @@
         <v>514</v>
       </c>
       <c r="B512" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C512" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D512" t="s">
         <v>1549</v>
@@ -12203,10 +12203,10 @@
         <v>515</v>
       </c>
       <c r="B513" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C513" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D513" t="s">
         <v>1549</v>
@@ -12217,10 +12217,10 @@
         <v>516</v>
       </c>
       <c r="B514" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C514" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D514" t="s">
         <v>1549</v>
@@ -12231,10 +12231,10 @@
         <v>517</v>
       </c>
       <c r="B515" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C515" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D515" t="s">
         <v>1549</v>
@@ -12245,10 +12245,10 @@
         <v>518</v>
       </c>
       <c r="B516" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C516" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D516" t="s">
         <v>1549</v>
@@ -12259,10 +12259,10 @@
         <v>519</v>
       </c>
       <c r="B517" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C517" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D517" t="s">
         <v>1549</v>
@@ -12273,10 +12273,10 @@
         <v>520</v>
       </c>
       <c r="B518" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C518" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D518" t="s">
         <v>1549</v>
@@ -12287,10 +12287,10 @@
         <v>521</v>
       </c>
       <c r="B519" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C519" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D519" t="s">
         <v>1549</v>
@@ -12301,10 +12301,10 @@
         <v>522</v>
       </c>
       <c r="B520" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C520" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D520" t="s">
         <v>1549</v>
@@ -12315,10 +12315,10 @@
         <v>523</v>
       </c>
       <c r="B521" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C521" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D521" t="s">
         <v>1549</v>
@@ -12329,10 +12329,10 @@
         <v>524</v>
       </c>
       <c r="B522" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C522" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D522" t="s">
         <v>1549</v>
@@ -12343,10 +12343,10 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C523" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D523" t="s">
         <v>1549</v>
@@ -12357,10 +12357,10 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C524" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D524" t="s">
         <v>1549</v>
@@ -12371,10 +12371,10 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C525" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D525" t="s">
         <v>1549</v>
@@ -12385,10 +12385,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C526" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D526" t="s">
         <v>1549</v>
@@ -12399,10 +12399,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C527" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D527" t="s">
         <v>1549</v>
@@ -12413,10 +12413,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C528" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D528" t="s">
         <v>1549</v>
@@ -12427,10 +12427,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C529" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D529" t="s">
         <v>1549</v>
@@ -12441,10 +12441,10 @@
         <v>532</v>
       </c>
       <c r="B530" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C530" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D530" t="s">
         <v>1549</v>
@@ -12455,10 +12455,10 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C531" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D531" t="s">
         <v>1549</v>
@@ -12469,10 +12469,10 @@
         <v>534</v>
       </c>
       <c r="B532" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C532" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D532" t="s">
         <v>1549</v>
@@ -12483,10 +12483,10 @@
         <v>535</v>
       </c>
       <c r="B533" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C533" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D533" t="s">
         <v>1549</v>
@@ -12497,10 +12497,10 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C534" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D534" t="s">
         <v>1549</v>
@@ -12511,10 +12511,10 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C535" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D535" t="s">
         <v>1549</v>
@@ -12525,10 +12525,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C536" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D536" t="s">
         <v>1549</v>
@@ -12539,10 +12539,10 @@
         <v>539</v>
       </c>
       <c r="B537" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C537" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D537" t="s">
         <v>1549</v>
@@ -12553,10 +12553,10 @@
         <v>540</v>
       </c>
       <c r="B538" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C538" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D538" t="s">
         <v>1549</v>
@@ -12567,10 +12567,10 @@
         <v>541</v>
       </c>
       <c r="B539" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C539" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D539" t="s">
         <v>1549</v>
@@ -12581,10 +12581,10 @@
         <v>542</v>
       </c>
       <c r="B540" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C540" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D540" t="s">
         <v>1549</v>
@@ -12595,10 +12595,10 @@
         <v>543</v>
       </c>
       <c r="B541" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C541" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D541" t="s">
         <v>1549</v>
@@ -12609,10 +12609,10 @@
         <v>544</v>
       </c>
       <c r="B542" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C542" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D542" t="s">
         <v>1549</v>
@@ -12623,10 +12623,10 @@
         <v>545</v>
       </c>
       <c r="B543" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C543" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D543" t="s">
         <v>1549</v>
@@ -12637,10 +12637,10 @@
         <v>546</v>
       </c>
       <c r="B544" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C544" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D544" t="s">
         <v>1549</v>
@@ -12651,10 +12651,10 @@
         <v>547</v>
       </c>
       <c r="B545" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C545" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D545" t="s">
         <v>1549</v>
@@ -12665,10 +12665,10 @@
         <v>548</v>
       </c>
       <c r="B546" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C546" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D546" t="s">
         <v>1549</v>
@@ -12679,10 +12679,10 @@
         <v>549</v>
       </c>
       <c r="B547" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C547" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D547" t="s">
         <v>1549</v>
@@ -12693,10 +12693,10 @@
         <v>550</v>
       </c>
       <c r="B548" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C548" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D548" t="s">
         <v>1549</v>
@@ -12707,10 +12707,10 @@
         <v>551</v>
       </c>
       <c r="B549" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C549" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D549" t="s">
         <v>1549</v>
@@ -12721,10 +12721,10 @@
         <v>552</v>
       </c>
       <c r="B550" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C550" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D550" t="s">
         <v>1549</v>
@@ -12735,10 +12735,10 @@
         <v>553</v>
       </c>
       <c r="B551" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C551" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D551" t="s">
         <v>1549</v>
@@ -12749,10 +12749,10 @@
         <v>554</v>
       </c>
       <c r="B552" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C552" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D552" t="s">
         <v>1549</v>
@@ -12763,10 +12763,10 @@
         <v>555</v>
       </c>
       <c r="B553" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C553" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D553" t="s">
         <v>1549</v>
@@ -12777,10 +12777,10 @@
         <v>556</v>
       </c>
       <c r="B554" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C554" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D554" t="s">
         <v>1549</v>
@@ -12791,10 +12791,10 @@
         <v>557</v>
       </c>
       <c r="B555" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C555" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D555" t="s">
         <v>1549</v>
@@ -12805,10 +12805,10 @@
         <v>558</v>
       </c>
       <c r="B556" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C556" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D556" t="s">
         <v>1549</v>
@@ -12819,10 +12819,10 @@
         <v>559</v>
       </c>
       <c r="B557" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C557" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D557" t="s">
         <v>1549</v>
@@ -12833,10 +12833,10 @@
         <v>560</v>
       </c>
       <c r="B558" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C558" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D558" t="s">
         <v>1549</v>
@@ -12847,10 +12847,10 @@
         <v>561</v>
       </c>
       <c r="B559" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C559" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D559" t="s">
         <v>1549</v>
@@ -12861,10 +12861,10 @@
         <v>562</v>
       </c>
       <c r="B560" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C560" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D560" t="s">
         <v>1549</v>
@@ -12875,10 +12875,10 @@
         <v>563</v>
       </c>
       <c r="B561" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C561" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D561" t="s">
         <v>1549</v>
@@ -12889,10 +12889,10 @@
         <v>564</v>
       </c>
       <c r="B562" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C562" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D562" t="s">
         <v>1549</v>
@@ -12903,10 +12903,10 @@
         <v>565</v>
       </c>
       <c r="B563" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C563" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D563" t="s">
         <v>1549</v>
@@ -12917,10 +12917,10 @@
         <v>566</v>
       </c>
       <c r="B564" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C564" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D564" t="s">
         <v>1549</v>
@@ -12931,10 +12931,10 @@
         <v>567</v>
       </c>
       <c r="B565" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C565" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D565" t="s">
         <v>1549</v>
@@ -12945,10 +12945,10 @@
         <v>568</v>
       </c>
       <c r="B566" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C566" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D566" t="s">
         <v>1549</v>
@@ -12959,10 +12959,10 @@
         <v>569</v>
       </c>
       <c r="B567" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C567" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D567" t="s">
         <v>1549</v>
@@ -12973,10 +12973,10 @@
         <v>570</v>
       </c>
       <c r="B568" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C568" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D568" t="s">
         <v>1549</v>
@@ -12987,10 +12987,10 @@
         <v>571</v>
       </c>
       <c r="B569" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C569" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D569" t="s">
         <v>1549</v>
@@ -13001,10 +13001,10 @@
         <v>572</v>
       </c>
       <c r="B570" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C570" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D570" t="s">
         <v>1549</v>
@@ -13015,10 +13015,10 @@
         <v>573</v>
       </c>
       <c r="B571" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C571" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D571" t="s">
         <v>1549</v>
@@ -13029,10 +13029,10 @@
         <v>574</v>
       </c>
       <c r="B572" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C572" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D572" t="s">
         <v>1549</v>
@@ -13043,10 +13043,10 @@
         <v>575</v>
       </c>
       <c r="B573" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C573" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D573" t="s">
         <v>1549</v>
@@ -13057,10 +13057,10 @@
         <v>576</v>
       </c>
       <c r="B574" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C574" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D574" t="s">
         <v>1549</v>
@@ -13071,10 +13071,10 @@
         <v>577</v>
       </c>
       <c r="B575" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C575" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D575" t="s">
         <v>1549</v>
@@ -13085,10 +13085,10 @@
         <v>578</v>
       </c>
       <c r="B576" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C576" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D576" t="s">
         <v>1549</v>
@@ -13099,10 +13099,10 @@
         <v>579</v>
       </c>
       <c r="B577" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C577" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D577" t="s">
         <v>1549</v>
@@ -13113,10 +13113,10 @@
         <v>580</v>
       </c>
       <c r="B578" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C578" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D578" t="s">
         <v>1549</v>
@@ -13127,10 +13127,10 @@
         <v>581</v>
       </c>
       <c r="B579" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C579" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D579" t="s">
         <v>1549</v>
@@ -13141,10 +13141,10 @@
         <v>582</v>
       </c>
       <c r="B580" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C580" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D580" t="s">
         <v>1549</v>
@@ -13155,10 +13155,10 @@
         <v>583</v>
       </c>
       <c r="B581" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C581" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D581" t="s">
         <v>1549</v>
@@ -13169,10 +13169,10 @@
         <v>584</v>
       </c>
       <c r="B582" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C582" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D582" t="s">
         <v>1549</v>
@@ -13183,10 +13183,10 @@
         <v>585</v>
       </c>
       <c r="B583" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C583" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D583" t="s">
         <v>1549</v>
@@ -13197,10 +13197,10 @@
         <v>586</v>
       </c>
       <c r="B584" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C584" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D584" t="s">
         <v>1549</v>
@@ -13211,10 +13211,10 @@
         <v>587</v>
       </c>
       <c r="B585" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C585" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D585" t="s">
         <v>1549</v>
@@ -13225,10 +13225,10 @@
         <v>588</v>
       </c>
       <c r="B586" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C586" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D586" t="s">
         <v>1549</v>
@@ -13239,10 +13239,10 @@
         <v>589</v>
       </c>
       <c r="B587" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C587" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D587" t="s">
         <v>1549</v>
@@ -13253,10 +13253,10 @@
         <v>590</v>
       </c>
       <c r="B588" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C588" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D588" t="s">
         <v>1549</v>
@@ -13267,10 +13267,10 @@
         <v>591</v>
       </c>
       <c r="B589" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C589" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D589" t="s">
         <v>1549</v>
@@ -13281,10 +13281,10 @@
         <v>592</v>
       </c>
       <c r="B590" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C590" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D590" t="s">
         <v>1549</v>
@@ -13295,10 +13295,10 @@
         <v>593</v>
       </c>
       <c r="B591" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C591" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D591" t="s">
         <v>1549</v>
@@ -13309,10 +13309,10 @@
         <v>594</v>
       </c>
       <c r="B592" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C592" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D592" t="s">
         <v>1549</v>
@@ -13323,10 +13323,10 @@
         <v>595</v>
       </c>
       <c r="B593" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C593" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D593" t="s">
         <v>1549</v>
@@ -13337,10 +13337,10 @@
         <v>596</v>
       </c>
       <c r="B594" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C594" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D594" t="s">
         <v>1549</v>
@@ -13351,10 +13351,10 @@
         <v>597</v>
       </c>
       <c r="B595" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C595" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D595" t="s">
         <v>1549</v>
@@ -13365,10 +13365,10 @@
         <v>598</v>
       </c>
       <c r="B596" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C596" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D596" t="s">
         <v>1549</v>
@@ -13379,10 +13379,10 @@
         <v>599</v>
       </c>
       <c r="B597" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C597" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D597" t="s">
         <v>1549</v>
@@ -13393,10 +13393,10 @@
         <v>600</v>
       </c>
       <c r="B598" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C598" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D598" t="s">
         <v>1549</v>
@@ -13407,10 +13407,10 @@
         <v>601</v>
       </c>
       <c r="B599" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C599" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D599" t="s">
         <v>1549</v>
@@ -13421,10 +13421,10 @@
         <v>602</v>
       </c>
       <c r="B600" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C600" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D600" t="s">
         <v>1549</v>
@@ -13435,10 +13435,10 @@
         <v>603</v>
       </c>
       <c r="B601" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C601" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D601" t="s">
         <v>1549</v>
@@ -13449,10 +13449,10 @@
         <v>604</v>
       </c>
       <c r="B602" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C602" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D602" t="s">
         <v>1549</v>
@@ -13463,10 +13463,10 @@
         <v>605</v>
       </c>
       <c r="B603" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C603" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D603" t="s">
         <v>1549</v>
@@ -13477,10 +13477,10 @@
         <v>606</v>
       </c>
       <c r="B604" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C604" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D604" t="s">
         <v>1549</v>
@@ -13491,10 +13491,10 @@
         <v>607</v>
       </c>
       <c r="B605" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C605" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D605" t="s">
         <v>1549</v>
@@ -13505,10 +13505,10 @@
         <v>608</v>
       </c>
       <c r="B606" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C606" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D606" t="s">
         <v>1549</v>
@@ -13519,10 +13519,10 @@
         <v>609</v>
       </c>
       <c r="B607" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C607" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D607" t="s">
         <v>1549</v>
@@ -13533,10 +13533,10 @@
         <v>610</v>
       </c>
       <c r="B608" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C608" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D608" t="s">
         <v>1549</v>
@@ -13547,10 +13547,10 @@
         <v>611</v>
       </c>
       <c r="B609" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C609" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D609" t="s">
         <v>1549</v>
@@ -13561,10 +13561,10 @@
         <v>612</v>
       </c>
       <c r="B610" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C610" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D610" t="s">
         <v>1549</v>
@@ -13575,10 +13575,10 @@
         <v>613</v>
       </c>
       <c r="B611" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C611" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D611" t="s">
         <v>1549</v>
@@ -13589,10 +13589,10 @@
         <v>614</v>
       </c>
       <c r="B612" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C612" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D612" t="s">
         <v>1549</v>
@@ -13603,10 +13603,10 @@
         <v>615</v>
       </c>
       <c r="B613" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C613" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D613" t="s">
         <v>1549</v>
@@ -13617,10 +13617,10 @@
         <v>616</v>
       </c>
       <c r="B614" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C614" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D614" t="s">
         <v>1549</v>
@@ -13631,10 +13631,10 @@
         <v>617</v>
       </c>
       <c r="B615" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C615" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D615" t="s">
         <v>1549</v>
@@ -13645,10 +13645,10 @@
         <v>618</v>
       </c>
       <c r="B616" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C616" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D616" t="s">
         <v>1549</v>
@@ -13659,10 +13659,10 @@
         <v>619</v>
       </c>
       <c r="B617" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C617" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D617" t="s">
         <v>1549</v>
@@ -13673,10 +13673,10 @@
         <v>620</v>
       </c>
       <c r="B618" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C618" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D618" t="s">
         <v>1549</v>
@@ -13687,10 +13687,10 @@
         <v>621</v>
       </c>
       <c r="B619" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C619" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D619" t="s">
         <v>1549</v>
@@ -13701,10 +13701,10 @@
         <v>622</v>
       </c>
       <c r="B620" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C620" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D620" t="s">
         <v>1549</v>
@@ -13715,10 +13715,10 @@
         <v>623</v>
       </c>
       <c r="B621" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C621" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D621" t="s">
         <v>1549</v>
@@ -13729,10 +13729,10 @@
         <v>624</v>
       </c>
       <c r="B622" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C622" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D622" t="s">
         <v>1549</v>
@@ -13743,10 +13743,10 @@
         <v>625</v>
       </c>
       <c r="B623" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C623" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D623" t="s">
         <v>1549</v>
@@ -13757,10 +13757,10 @@
         <v>626</v>
       </c>
       <c r="B624" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C624" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D624" t="s">
         <v>1549</v>
@@ -13771,10 +13771,10 @@
         <v>627</v>
       </c>
       <c r="B625" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C625" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D625" t="s">
         <v>1549</v>
@@ -13785,10 +13785,10 @@
         <v>628</v>
       </c>
       <c r="B626" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C626" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D626" t="s">
         <v>1549</v>
@@ -13799,10 +13799,10 @@
         <v>629</v>
       </c>
       <c r="B627" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C627" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D627" t="s">
         <v>1549</v>
@@ -13813,10 +13813,10 @@
         <v>630</v>
       </c>
       <c r="B628" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C628" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D628" t="s">
         <v>1549</v>
@@ -13827,10 +13827,10 @@
         <v>631</v>
       </c>
       <c r="B629" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C629" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D629" t="s">
         <v>1549</v>
@@ -13841,10 +13841,10 @@
         <v>632</v>
       </c>
       <c r="B630" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C630" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D630" t="s">
         <v>1549</v>
@@ -13855,10 +13855,10 @@
         <v>633</v>
       </c>
       <c r="B631" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C631" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D631" t="s">
         <v>1549</v>
@@ -13869,10 +13869,10 @@
         <v>634</v>
       </c>
       <c r="B632" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C632" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D632" t="s">
         <v>1549</v>
@@ -13883,10 +13883,10 @@
         <v>635</v>
       </c>
       <c r="B633" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C633" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D633" t="s">
         <v>1549</v>
@@ -13897,10 +13897,10 @@
         <v>636</v>
       </c>
       <c r="B634" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C634" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D634" t="s">
         <v>1549</v>
@@ -13911,10 +13911,10 @@
         <v>637</v>
       </c>
       <c r="B635" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C635" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D635" t="s">
         <v>1549</v>
@@ -13925,10 +13925,10 @@
         <v>638</v>
       </c>
       <c r="B636" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C636" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D636" t="s">
         <v>1549</v>
@@ -13939,10 +13939,10 @@
         <v>639</v>
       </c>
       <c r="B637" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C637" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D637" t="s">
         <v>1549</v>
@@ -13953,10 +13953,10 @@
         <v>640</v>
       </c>
       <c r="B638" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C638" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D638" t="s">
         <v>1549</v>
@@ -13967,10 +13967,10 @@
         <v>641</v>
       </c>
       <c r="B639" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C639" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D639" t="s">
         <v>1549</v>
@@ -13981,10 +13981,10 @@
         <v>642</v>
       </c>
       <c r="B640" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C640" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D640" t="s">
         <v>1549</v>
@@ -13995,10 +13995,10 @@
         <v>643</v>
       </c>
       <c r="B641" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C641" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D641" t="s">
         <v>1549</v>
@@ -14009,10 +14009,10 @@
         <v>644</v>
       </c>
       <c r="B642" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C642" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D642" t="s">
         <v>1549</v>
@@ -14023,10 +14023,10 @@
         <v>645</v>
       </c>
       <c r="B643" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C643" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D643" t="s">
         <v>1549</v>
@@ -14037,10 +14037,10 @@
         <v>646</v>
       </c>
       <c r="B644" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C644" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D644" t="s">
         <v>1549</v>
@@ -14051,10 +14051,10 @@
         <v>647</v>
       </c>
       <c r="B645" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C645" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D645" t="s">
         <v>1549</v>
@@ -14065,10 +14065,10 @@
         <v>648</v>
       </c>
       <c r="B646" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C646" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D646" t="s">
         <v>1549</v>
@@ -14079,10 +14079,10 @@
         <v>649</v>
       </c>
       <c r="B647" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C647" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D647" t="s">
         <v>1549</v>
@@ -14093,10 +14093,10 @@
         <v>650</v>
       </c>
       <c r="B648" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C648" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D648" t="s">
         <v>1549</v>
@@ -14107,10 +14107,10 @@
         <v>651</v>
       </c>
       <c r="B649" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C649" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D649" t="s">
         <v>1549</v>
@@ -14121,10 +14121,10 @@
         <v>652</v>
       </c>
       <c r="B650" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C650" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D650" t="s">
         <v>1549</v>
@@ -14135,10 +14135,10 @@
         <v>653</v>
       </c>
       <c r="B651" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C651" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D651" t="s">
         <v>1549</v>
@@ -14149,10 +14149,10 @@
         <v>654</v>
       </c>
       <c r="B652" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C652" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D652" t="s">
         <v>1549</v>
@@ -14163,10 +14163,10 @@
         <v>655</v>
       </c>
       <c r="B653" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C653" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D653" t="s">
         <v>1549</v>
@@ -14177,10 +14177,10 @@
         <v>656</v>
       </c>
       <c r="B654" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C654" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D654" t="s">
         <v>1549</v>
@@ -14191,10 +14191,10 @@
         <v>657</v>
       </c>
       <c r="B655" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C655" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D655" t="s">
         <v>1549</v>
@@ -14205,10 +14205,10 @@
         <v>658</v>
       </c>
       <c r="B656" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C656" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D656" t="s">
         <v>1549</v>
@@ -14219,10 +14219,10 @@
         <v>659</v>
       </c>
       <c r="B657" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C657" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D657" t="s">
         <v>1549</v>
@@ -14233,10 +14233,10 @@
         <v>660</v>
       </c>
       <c r="B658" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C658" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D658" t="s">
         <v>1549</v>
@@ -14247,10 +14247,10 @@
         <v>661</v>
       </c>
       <c r="B659" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C659" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D659" t="s">
         <v>1549</v>
@@ -14261,10 +14261,10 @@
         <v>662</v>
       </c>
       <c r="B660" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C660" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D660" t="s">
         <v>1549</v>
@@ -14275,10 +14275,10 @@
         <v>663</v>
       </c>
       <c r="B661" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C661" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D661" t="s">
         <v>1549</v>
@@ -14289,10 +14289,10 @@
         <v>664</v>
       </c>
       <c r="B662" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C662" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D662" t="s">
         <v>1549</v>
@@ -14303,10 +14303,10 @@
         <v>665</v>
       </c>
       <c r="B663" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C663" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D663" t="s">
         <v>1549</v>
@@ -14317,10 +14317,10 @@
         <v>666</v>
       </c>
       <c r="B664" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C664" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D664" t="s">
         <v>1549</v>
@@ -14331,10 +14331,10 @@
         <v>667</v>
       </c>
       <c r="B665" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C665" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D665" t="s">
         <v>1549</v>
@@ -14345,10 +14345,10 @@
         <v>668</v>
       </c>
       <c r="B666" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C666" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D666" t="s">
         <v>1549</v>
@@ -14359,10 +14359,10 @@
         <v>669</v>
       </c>
       <c r="B667" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C667" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D667" t="s">
         <v>1549</v>
@@ -14373,10 +14373,10 @@
         <v>670</v>
       </c>
       <c r="B668" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C668" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D668" t="s">
         <v>1549</v>
@@ -14387,10 +14387,10 @@
         <v>671</v>
       </c>
       <c r="B669" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C669" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D669" t="s">
         <v>1549</v>
@@ -14401,10 +14401,10 @@
         <v>672</v>
       </c>
       <c r="B670" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C670" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D670" t="s">
         <v>1549</v>
@@ -14415,10 +14415,10 @@
         <v>673</v>
       </c>
       <c r="B671" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C671" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D671" t="s">
         <v>1549</v>
@@ -14429,10 +14429,10 @@
         <v>674</v>
       </c>
       <c r="B672" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C672" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D672" t="s">
         <v>1549</v>
@@ -14443,10 +14443,10 @@
         <v>675</v>
       </c>
       <c r="B673" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C673" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D673" t="s">
         <v>1549</v>
@@ -14457,10 +14457,10 @@
         <v>676</v>
       </c>
       <c r="B674" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C674" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D674" t="s">
         <v>1549</v>
@@ -14471,10 +14471,10 @@
         <v>677</v>
       </c>
       <c r="B675" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C675" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D675" t="s">
         <v>1549</v>
@@ -14485,10 +14485,10 @@
         <v>678</v>
       </c>
       <c r="B676" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C676" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D676" t="s">
         <v>1549</v>
@@ -14499,10 +14499,10 @@
         <v>679</v>
       </c>
       <c r="B677" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C677" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D677" t="s">
         <v>1549</v>
@@ -14513,10 +14513,10 @@
         <v>680</v>
       </c>
       <c r="B678" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C678" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D678" t="s">
         <v>1549</v>
@@ -14527,10 +14527,10 @@
         <v>681</v>
       </c>
       <c r="B679" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C679" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D679" t="s">
         <v>1549</v>
@@ -14541,10 +14541,10 @@
         <v>682</v>
       </c>
       <c r="B680" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C680" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D680" t="s">
         <v>1549</v>
@@ -14555,10 +14555,10 @@
         <v>683</v>
       </c>
       <c r="B681" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C681" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D681" t="s">
         <v>1549</v>
@@ -14569,10 +14569,10 @@
         <v>684</v>
       </c>
       <c r="B682" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C682" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D682" t="s">
         <v>1549</v>
@@ -14583,10 +14583,10 @@
         <v>685</v>
       </c>
       <c r="B683" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C683" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D683" t="s">
         <v>1549</v>
@@ -14597,10 +14597,10 @@
         <v>686</v>
       </c>
       <c r="B684" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C684" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D684" t="s">
         <v>1549</v>
@@ -14611,10 +14611,10 @@
         <v>687</v>
       </c>
       <c r="B685" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C685" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D685" t="s">
         <v>1549</v>
@@ -14625,10 +14625,10 @@
         <v>688</v>
       </c>
       <c r="B686" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C686" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D686" t="s">
         <v>1549</v>
@@ -14639,10 +14639,10 @@
         <v>689</v>
       </c>
       <c r="B687" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C687" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D687" t="s">
         <v>1549</v>
@@ -14653,10 +14653,10 @@
         <v>690</v>
       </c>
       <c r="B688" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C688" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D688" t="s">
         <v>1549</v>
@@ -14667,10 +14667,10 @@
         <v>691</v>
       </c>
       <c r="B689" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C689" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D689" t="s">
         <v>1549</v>
@@ -14681,10 +14681,10 @@
         <v>692</v>
       </c>
       <c r="B690" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C690" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D690" t="s">
         <v>1549</v>
@@ -14695,10 +14695,10 @@
         <v>693</v>
       </c>
       <c r="B691" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C691" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D691" t="s">
         <v>1549</v>
@@ -14709,10 +14709,10 @@
         <v>694</v>
       </c>
       <c r="B692" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C692" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D692" t="s">
         <v>1549</v>
@@ -14723,10 +14723,10 @@
         <v>695</v>
       </c>
       <c r="B693" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C693" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D693" t="s">
         <v>1549</v>
@@ -14737,10 +14737,10 @@
         <v>696</v>
       </c>
       <c r="B694" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C694" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D694" t="s">
         <v>1549</v>
@@ -14751,10 +14751,10 @@
         <v>697</v>
       </c>
       <c r="B695" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C695" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D695" t="s">
         <v>1549</v>
@@ -14765,10 +14765,10 @@
         <v>698</v>
       </c>
       <c r="B696" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C696" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D696" t="s">
         <v>1549</v>
@@ -14779,10 +14779,10 @@
         <v>699</v>
       </c>
       <c r="B697" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C697" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D697" t="s">
         <v>1549</v>
@@ -14793,10 +14793,10 @@
         <v>700</v>
       </c>
       <c r="B698" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C698" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D698" t="s">
         <v>1549</v>
@@ -14807,10 +14807,10 @@
         <v>701</v>
       </c>
       <c r="B699" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C699" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D699" t="s">
         <v>1549</v>
@@ -14821,10 +14821,10 @@
         <v>702</v>
       </c>
       <c r="B700" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C700" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D700" t="s">
         <v>1549</v>
@@ -14835,10 +14835,10 @@
         <v>703</v>
       </c>
       <c r="B701" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C701" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D701" t="s">
         <v>1549</v>
@@ -14849,10 +14849,10 @@
         <v>704</v>
       </c>
       <c r="B702" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C702" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D702" t="s">
         <v>1549</v>
@@ -14863,10 +14863,10 @@
         <v>705</v>
       </c>
       <c r="B703" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C703" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D703" t="s">
         <v>1549</v>
@@ -14877,10 +14877,10 @@
         <v>706</v>
       </c>
       <c r="B704" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C704" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D704" t="s">
         <v>1549</v>
@@ -14891,10 +14891,10 @@
         <v>707</v>
       </c>
       <c r="B705" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C705" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D705" t="s">
         <v>1549</v>
@@ -14905,10 +14905,10 @@
         <v>708</v>
       </c>
       <c r="B706" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C706" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D706" t="s">
         <v>1549</v>
@@ -14919,10 +14919,10 @@
         <v>709</v>
       </c>
       <c r="B707" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C707" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D707" t="s">
         <v>1549</v>
@@ -14933,10 +14933,10 @@
         <v>710</v>
       </c>
       <c r="B708" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C708" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D708" t="s">
         <v>1549</v>
@@ -14947,10 +14947,10 @@
         <v>711</v>
       </c>
       <c r="B709" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C709" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D709" t="s">
         <v>1549</v>
@@ -14961,10 +14961,10 @@
         <v>712</v>
       </c>
       <c r="B710" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C710" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D710" t="s">
         <v>1549</v>
@@ -14975,10 +14975,10 @@
         <v>713</v>
       </c>
       <c r="B711" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C711" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D711" t="s">
         <v>1549</v>
@@ -14989,10 +14989,10 @@
         <v>714</v>
       </c>
       <c r="B712" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C712" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D712" t="s">
         <v>1549</v>
@@ -15003,10 +15003,10 @@
         <v>715</v>
       </c>
       <c r="B713" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C713" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D713" t="s">
         <v>1549</v>
@@ -15017,10 +15017,10 @@
         <v>716</v>
       </c>
       <c r="B714" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C714" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D714" t="s">
         <v>1549</v>
@@ -15031,10 +15031,10 @@
         <v>717</v>
       </c>
       <c r="B715" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C715" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D715" t="s">
         <v>1549</v>
@@ -15045,10 +15045,10 @@
         <v>718</v>
       </c>
       <c r="B716" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C716" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D716" t="s">
         <v>1549</v>
@@ -15059,10 +15059,10 @@
         <v>719</v>
       </c>
       <c r="B717" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C717" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D717" t="s">
         <v>1549</v>
@@ -15073,10 +15073,10 @@
         <v>720</v>
       </c>
       <c r="B718" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C718" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D718" t="s">
         <v>1549</v>
@@ -15087,10 +15087,10 @@
         <v>721</v>
       </c>
       <c r="B719" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C719" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D719" t="s">
         <v>1549</v>
@@ -15101,10 +15101,10 @@
         <v>722</v>
       </c>
       <c r="B720" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C720" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D720" t="s">
         <v>1549</v>
@@ -25990,10 +25990,10 @@
         <v>1499</v>
       </c>
       <c r="B1498" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C1498" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D1498" t="s">
         <v>1550</v>
@@ -26004,10 +26004,10 @@
         <v>1500</v>
       </c>
       <c r="B1499" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="C1499" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="D1499" t="s">
         <v>1550</v>
@@ -26018,10 +26018,10 @@
         <v>1501</v>
       </c>
       <c r="B1500" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C1500" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D1500" t="s">
         <v>1550</v>
@@ -26046,10 +26046,10 @@
         <v>1503</v>
       </c>
       <c r="B1502" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C1502" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="D1502" t="s">
         <v>1550</v>
@@ -26074,10 +26074,10 @@
         <v>1505</v>
       </c>
       <c r="B1504" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C1504" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D1504" t="s">
         <v>1550</v>
@@ -26116,10 +26116,10 @@
         <v>1508</v>
       </c>
       <c r="B1507" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="C1507" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D1507" t="s">
         <v>1550</v>
@@ -26200,10 +26200,10 @@
         <v>1514</v>
       </c>
       <c r="B1513" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C1513" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D1513" t="s">
         <v>1550</v>
@@ -26214,10 +26214,10 @@
         <v>1515</v>
       </c>
       <c r="B1514" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1514" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1514" t="s">
         <v>1550</v>
@@ -26228,10 +26228,10 @@
         <v>1516</v>
       </c>
       <c r="B1515" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C1515" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D1515" t="s">
         <v>1550</v>
@@ -26242,10 +26242,10 @@
         <v>1517</v>
       </c>
       <c r="B1516" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1516" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1516" t="s">
         <v>1550</v>
@@ -26256,10 +26256,10 @@
         <v>1518</v>
       </c>
       <c r="B1517" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C1517" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D1517" t="s">
         <v>1550</v>
@@ -26298,10 +26298,10 @@
         <v>1521</v>
       </c>
       <c r="B1520" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1520" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1520" t="s">
         <v>1550</v>
@@ -26312,10 +26312,10 @@
         <v>1522</v>
       </c>
       <c r="B1521" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C1521" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="D1521" t="s">
         <v>1550</v>
@@ -26326,10 +26326,10 @@
         <v>1523</v>
       </c>
       <c r="B1522" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C1522" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D1522" t="s">
         <v>1550</v>
@@ -26340,10 +26340,10 @@
         <v>1524</v>
       </c>
       <c r="B1523" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C1523" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D1523" t="s">
         <v>1550</v>
@@ -26396,10 +26396,10 @@
         <v>1528</v>
       </c>
       <c r="B1527" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C1527" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D1527" t="s">
         <v>1550</v>
@@ -26410,10 +26410,10 @@
         <v>1529</v>
       </c>
       <c r="B1528" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C1528" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D1528" t="s">
         <v>1550</v>
@@ -26424,10 +26424,10 @@
         <v>1530</v>
       </c>
       <c r="B1529" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1529" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1529" t="s">
         <v>1550</v>
@@ -26452,10 +26452,10 @@
         <v>1532</v>
       </c>
       <c r="B1531" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C1531" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D1531" t="s">
         <v>1550</v>
@@ -26466,10 +26466,10 @@
         <v>1533</v>
       </c>
       <c r="B1532" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C1532" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D1532" t="s">
         <v>1550</v>
@@ -26480,10 +26480,10 @@
         <v>1534</v>
       </c>
       <c r="B1533" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1533" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1533" t="s">
         <v>1550</v>
